--- a/Question_Sets/Role-specific skills/Social Media Management.xlsx
+++ b/Question_Sets/Role-specific skills/Social Media Management.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are a social media manager for a retail group that wants to promote a new product on their social media platforms. You have been asked to set up a social media plan for the product release. How should you determine how frequently to post content?', 'ques_type': 2, 'options': ['Match the frequency with which your competitors post.', 'Continue to follow your group’s usual posting routine.', 'Test for frequency levels and post at the most responsive times.', 'Schedule your planned posts evenly over the next month.'], 'score': 'Test for frequency levels and post at the most responsive times.'}, {'title': 'You are the social media manager at a publishing company that constantly has new books to promote. How should you decide which content formats to include in your monthly communication plan?', 'ques_type': 2, 'options': ['Research which formats are trending in the publishing industry.', 'Test how, when, and what content the target audience wants.', 'Research which formats are most popular on your chosen social media platform.', 'Use the format that you have had success with previously.'], 'score': 'Test how, when, and what content the target audience wants.'}, {'title': 'You are working as a social media manager at a design company. The company is looking for feedback on the performance of a campaign you are running for a local government agency. What should you look at?', 'ques_type': 2, 'options': ['Activity inside each specific social media platform.', 'Activity across all your social media platforms.', 'Activity from inside the design company’s website weblogs.', 'Activity from the social media platform and all public websites.'], 'score': 'Activity across all your social media platforms.'}, {'title': 'You are the social media manager for a drinks provider that has released a new drink aimed at a younger group of consumers.Which of the following social media activities should you use to best engage your audience?', 'ques_type': 2, 'options': ['Post a link to the website’s description of the new drink.', 'Post videos showing how people can best enjoy the new drink.', 'Post photos showing people enjoying the drink at parties.', 'Post a press release about the new drink.'], 'score': 'Post videos showing how people can best enjoy the new drink.'}]</t>
+    <t>questions = [
+    {
+        "title": "You are a social media manager for a retail group that wants to promote a new product on their social media platforms. You have been asked to set up a social media plan for the product release. How should you determine how frequently to post content?",
+        "ques_type": 2,
+        "options": [
+            "Match the frequency with which your competitors post.",
+            "Continue to follow your group\u2019s usual posting routine.",
+            "Test for frequency levels and post at the most responsive times.",
+            "Schedule your planned posts evenly over the next month."
+        ],
+        "score": "Test for frequency levels and post at the most responsive times."
+    },
+    {
+        "title": "You are the social media manager at a publishing company that constantly has new books to promote. How should you decide which content formats to include in your monthly communication plan?",
+        "ques_type": 2,
+        "options": [
+            "Research which formats are trending in the publishing industry.",
+            "Test how, when, and what content the target audience wants.",
+            "Research which formats are most popular on your chosen social media platform.",
+            "Use the format that you have had success with previously."
+        ],
+        "score": "Test how, when, and what content the target audience wants."
+    },
+    {
+        "title": "You are working as a social media manager at a design company. The company is looking for feedback on the performance of a campaign you are running for a local government agency. What should you look at?",
+        "ques_type": 2,
+        "options": [
+            "Activity inside each specific social media platform.",
+            "Activity across all your social media platforms.",
+            "Activity from inside the design company\u2019s website weblogs.",
+            "Activity from the social media platform and all public websites."
+        ],
+        "score": "Activity across all your social media platforms."
+    },
+    {
+        "title": "You are the social media manager for a drinks provider that has released a new drink aimed at a younger group of consumers.Which of the following social media activities should you use to best engage your audience?",
+        "ques_type": 2,
+        "options": [
+            "Post a link to the website\u2019s description of the new drink.",
+            "Post videos showing how people can best enjoy the new drink.",
+            "Post photos showing people enjoying the drink at parties.",
+            "Post a press release about the new drink."
+        ],
+        "score": "Post videos showing how people can best enjoy the new drink."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
